--- a/VideoGameReferences.xlsx
+++ b/VideoGameReferences.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ki Hedge\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ReaperN7\Documents\GitHub\RNGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903E4CD1-B79E-4635-AB61-142B8DB60E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6B079D-6D7D-4D4E-A144-3ECD93EDD0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" xr2:uid="{ECD077A3-C991-4F15-A08C-F05AF54D1E7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{ECD077A3-C991-4F15-A08C-F05AF54D1E7D}"/>
   </bookViews>
   <sheets>
-    <sheet name="DB Normalization" sheetId="5" r:id="rId1"/>
-    <sheet name="SteamIdeal" sheetId="1" r:id="rId2"/>
-    <sheet name="Epic" sheetId="2" r:id="rId3"/>
-    <sheet name="EA_Games" sheetId="3" r:id="rId4"/>
-    <sheet name="Xbox" sheetId="4" r:id="rId5"/>
+    <sheet name="SteamIdeal" sheetId="1" r:id="rId1"/>
+    <sheet name="Epic" sheetId="2" r:id="rId2"/>
+    <sheet name="EA_Games" sheetId="3" r:id="rId3"/>
+    <sheet name="Xbox" sheetId="4" r:id="rId4"/>
+    <sheet name="DB Normalization" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -719,9 +722,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -759,7 +762,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -865,7 +868,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1007,13 +1010,776 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B6DC2E-73D5-4FA1-8BFA-9A9A569688EC}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0C3D40-913D-46CB-A771-B4CF1D793373}">
+  <dimension ref="A1:A81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F9495B-677A-4BF9-B32C-F8FEB175FCE2}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1C2741-F6C3-47A8-9664-D31454604E6E}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F8E75B-F780-4D68-A80E-90078A1D9317}">
   <dimension ref="B2:H17"/>
   <sheetViews>
@@ -1157,767 +1923,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B6DC2E-73D5-4FA1-8BFA-9A9A569688EC}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0C3D40-913D-46CB-A771-B4CF1D793373}">
-  <dimension ref="A1:A81"/>
-  <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F9495B-677A-4BF9-B32C-F8FEB175FCE2}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1C2741-F6C3-47A8-9664-D31454604E6E}">
-  <dimension ref="A1:A30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>